--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF9432-8657-5C49-B111-B5BB220C07BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF22DC-BE2D-B44F-8EE3-C4F721DE20FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
-    <sheet name="Course_groups" sheetId="2" r:id="rId2"/>
-    <sheet name="Course_articles" sheetId="3" r:id="rId3"/>
-    <sheet name="Articles" sheetId="4" r:id="rId4"/>
-    <sheet name="Article_skills" sheetId="5" r:id="rId5"/>
-    <sheet name="Levels" sheetId="6" r:id="rId6"/>
-    <sheet name="Groups" sheetId="7" r:id="rId7"/>
-    <sheet name="Skills" sheetId="8" r:id="rId8"/>
-    <sheet name="Path_groups" sheetId="9" r:id="rId9"/>
-    <sheet name="Careerpaths" sheetId="10" r:id="rId10"/>
+    <sheet name="Customers_courses" sheetId="11" r:id="rId2"/>
+    <sheet name="Users" sheetId="13" r:id="rId3"/>
+    <sheet name="Customers" sheetId="12" r:id="rId4"/>
+    <sheet name="Course_groups" sheetId="2" r:id="rId5"/>
+    <sheet name="Course_articles" sheetId="3" r:id="rId6"/>
+    <sheet name="Articles" sheetId="4" r:id="rId7"/>
+    <sheet name="Article_skills" sheetId="5" r:id="rId8"/>
+    <sheet name="Levels" sheetId="6" r:id="rId9"/>
+    <sheet name="Groups" sheetId="7" r:id="rId10"/>
+    <sheet name="Skills" sheetId="8" r:id="rId11"/>
+    <sheet name="Path_groups" sheetId="9" r:id="rId12"/>
+    <sheet name="Careerpaths" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="566">
   <si>
     <t>img/10004_g2c1w7.jpg</t>
   </si>
@@ -81,6 +84,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -104,6 +108,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Thanks to a growing number of software programs, it seems as if anyone can make a webpage. But what if you actually want to understand how the page was created? There are great textbooks and online resources for learning web design, but most of those resources require some background knowledge. This course is designed to help the novice who wants to gain confidence and knowledge. We will explore the theory (what actually happens when you click on a link on a webpage?), the practical (what do I need to know to make my own page?), and the overlooked (I have a page, what do I do now?). Throughout the course there will be a strong emphasis on adhering to syntactic standards for validation and semantic standards to promote wide accessibility for users with disabilities.  The textbook we use is available online, “The Missing Link: An Introduction to Web Development and Programming” by Michael Mendez from www.opensuny.org. 
 This course will appeal to a wide variety of people, but specifically those who would like a step-by-step description of the basics. There are no prerequisites for this course and it is assumed that students have no prior programming skills or IT experience. The course will culminate in a small final project that will require the completion of a very simple page with links and images. The focus of this course is on the basics, not appearance. You can see a sample final page at http://intro-webdesign.com/html5-plain.html.  
@@ -115,6 +120,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://intro-webdesign.com/</t>
     </r>
@@ -204,6 +210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>In this course, you'll walk through installation steps for installing a text editor, installing MAMP or XAMPP (or equivalent) and creating a MySql Database. You'll learn about single table queries and the basic syntax of the SQL language, as well as database design with multiple tables, foreign keys, and the JOIN operation. Lastly, you'll learn to model many-to-many relationships like those needed to represent users, roles, and courses.</t>
     </r>
@@ -212,6 +219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -222,6 +230,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.coursera.org/learn/intro-sql</t>
     </r>
@@ -245,6 +254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Welcome to my Basic course on Java Programming with NetBeans!
 My name is Matthew Dewey. I am an experienced programmer, having received several accommodations on programming in my formal education as well as tough several programming languages to thousands of students. My goal is to provide you, the budding programmer, the the knowledge you need on programming in an easy and fun manner. In this course I do just that and with one of the most useful IDEs coupled with the Java programming language.
@@ -259,6 +269,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.udemy.com/course/java-masterclass-basic-to-oop-programming-with-netbeans/</t>
     </r>
@@ -281,6 +292,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>This course concentrates mainly on Javascript based front-end frameworks, and in particular the Angular framework (Currently Ver. 6.x). This course will use Typescript for developing Angular application. Typescript features will be introduced in the context of Angular as part of the exercises. You will also get an introduction to the use of Angular Material and Angular Flex-Layout for responsive UI design. You will be introduced to various aspects of Angular including components, directives and services. You will learn about data binding, Angular router and its use for developing single-page applications. You will also learn about designing both template-driven forms and reactive forms. A quick introduction to Observables, reactive programming and RxJS in the context of Angular is included. You will then learn about Angular support for client-server communication through the HTTP client and the use of REST API on the server side. A quick tour through Angular animation support and Angular testing rounds off the course. You must have either completed the previous course in the specialization on Bootstrap 4, or have a working knowledge of front end web-UI frameworks to be able to navigate this course. Also a good working knowledge of JavaScript, especially ES 5 is strongly recommended.
 At the end of this course you will:
@@ -296,6 +308,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -306,6 +319,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.coursera.org/learn/angular</t>
     </r>
@@ -1742,12 +1756,144 @@
   <si>
     <t>is_active</t>
   </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>encrypted_password</t>
+  </si>
+  <si>
+    <t>reset_password_token</t>
+  </si>
+  <si>
+    <t>remember_created_at</t>
+  </si>
+  <si>
+    <t>confirmation_token</t>
+  </si>
+  <si>
+    <t>confirmed_at</t>
+  </si>
+  <si>
+    <t>unconfirmed_email</t>
+  </si>
+  <si>
+    <t>mentor1@gmail.com</t>
+  </si>
+  <si>
+    <t>mentor2@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Jogesh K. Muppala</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>roll_number</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>tnxtqdi36e7tgrhzpsc4.jpg</t>
+  </si>
+  <si>
+    <t>m2vyfzninc2qhojvynal.png</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>is_owner</t>
+  </si>
+  <si>
+    <t>is_save</t>
+  </si>
+  <si>
+    <t>current_article_id</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>reset_password_sent_at</t>
+  </si>
+  <si>
+    <t>confirmation_sent_at</t>
+  </si>
+  <si>
+    <t>mentor3@gmail.com</t>
+  </si>
+  <si>
+    <t>student1@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$12$iyL7DZfR3qe8cS/3T9CB2eljqv9yJNadoy0S7hcPCTeZLO8ewjV8q</t>
+  </si>
+  <si>
+    <t>$2a$12$P5CYFOfWBxfyiNSL8nmkyOSeEptp7VYCIaJEdAlA2opQQ78SFoLgm</t>
+  </si>
+  <si>
+    <t>$2a$12$uZo0oKPayxrAURCcICiOluY.Kl6nmo4VgGVuaxlPbe45T871chA/K</t>
+  </si>
+  <si>
+    <t>$2a$12$iEPixIdw6kDXZZ/JCADfmO8vjKvSimCvwE.twLATQzYy7ulcJuNtC</t>
+  </si>
+  <si>
+    <t>$2a$12$E7LmiBIFPcSztET7VZZxCOrJN5/x1S3ghJHJB4Ikp3zrxF9JaOdty</t>
+  </si>
+  <si>
+    <t>6QkdxKAg1TRNiNSgQbu7</t>
+  </si>
+  <si>
+    <t>jRq87SJA-DWBQizrnp7w</t>
+  </si>
+  <si>
+    <t>_AtehcKKzAHKUpy35N3j</t>
+  </si>
+  <si>
+    <t>osHpPJ2YNmxov42rpNmZ</t>
+  </si>
+  <si>
+    <t>LghQbs9aT-GJJUWzh2oE</t>
+  </si>
+  <si>
+    <t>nahpin1hy8mjg0j4kzna.jpg</t>
+  </si>
+  <si>
+    <t>ozuuuhdxnvs6pms80vfm.png</t>
+  </si>
+  <si>
+    <t>Tai De Lima</t>
+  </si>
+  <si>
+    <t>Tai De Lima 2</t>
+  </si>
+  <si>
+    <t>Charles Russell Severance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1758,38 +1904,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1800,70 +1953,83 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4D5156"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1874,12 +2040,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1930,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2001,6 +2175,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2222,7 +2399,7 @@
   </sheetPr>
   <dimension ref="A1:AB2111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -26731,6 +26908,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="36">
+        <v>16</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="36">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="36">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="36">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="36">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="36">
+        <v>22</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="36">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="36">
+        <v>24</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="36">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="36">
+        <v>26</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="36">
+        <v>27</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="36">
+        <v>28</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="36">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="36">
+        <v>30</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="36">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="36">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="36">
+        <v>34</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="36">
+        <v>46</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="36">
+        <v>48</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="36">
+        <v>49</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="36">
+        <v>50</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="36">
+        <v>51</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" s="36">
+        <v>52</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="36">
+        <v>53</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="36">
+        <v>54</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="36">
+        <v>55</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="36">
+        <v>56</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="36">
+        <v>57</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="36">
+        <v>58</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="36">
+        <v>59</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C60" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="36">
+        <v>60</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="36">
+        <v>61</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="36">
+        <v>62</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="36">
+        <v>63</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="36">
+        <v>64</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="36">
+        <v>65</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="36">
+        <v>66</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="36">
+        <v>67</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="36">
+        <v>68</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="36">
+        <v>69</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="36">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36">
+        <v>3</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="36">
+        <v>6</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="36">
+        <v>1</v>
+      </c>
+      <c r="B8" s="36">
+        <v>7</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="36">
+        <v>12</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="36">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="36">
+        <v>6</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="36">
+        <v>7</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="36">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36">
+        <v>12</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="36">
+        <v>13</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -26792,6 +28212,501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1304CA2-7AB6-6048-8903-EAD4549B59C9}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10002</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10003</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>10004</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10005</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10006</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>10007</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>10008</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10009</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10010</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10011</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10012</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8FED07-6E4B-CD47-8880-4CFA44D1B4D7}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="H2" s="52">
+        <v>44064.28365740741</v>
+      </c>
+      <c r="I2" s="50">
+        <v>44067.42725364583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" s="50">
+        <v>44064.295481331021</v>
+      </c>
+      <c r="I3" s="50">
+        <v>44067.427585069447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H4" s="50">
+        <v>44065.369011990741</v>
+      </c>
+      <c r="I4" s="50">
+        <v>44067.427929490739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="50">
+        <v>44065.410678657398</v>
+      </c>
+      <c r="I5" s="50">
+        <v>44067.447535381943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" s="50">
+        <v>44065.452345324098</v>
+      </c>
+      <c r="I6" s="50">
+        <v>44067.456604189814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="46"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF50F1-E81D-5445-AE36-2EAFBA9B4F6A}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32005,7 +33920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -34473,7 +36388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -34537,7 +36452,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>176</v>
+        <v>926</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -34568,7 +36483,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>148</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -34599,7 +36514,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1695</v>
+        <v>622</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -34630,7 +36545,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1624</v>
+        <v>1591</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -34661,7 +36576,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1649</v>
+        <v>1155</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -34692,7 +36607,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>575</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -34723,7 +36638,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>968</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -34754,7 +36669,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1490</v>
+        <v>783</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -34785,7 +36700,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1299</v>
+        <v>1270</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -34816,7 +36731,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1652</v>
+        <v>399</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -34847,7 +36762,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1497</v>
+        <v>1315</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -34878,7 +36793,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1687</v>
+        <v>1578</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -34909,7 +36824,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1337</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -34940,7 +36855,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>1629</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -34971,7 +36886,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>866</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -35002,7 +36917,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>574</v>
+        <v>1041</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -35033,7 +36948,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1793</v>
+        <v>1443</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -35064,7 +36979,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>1334</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -35095,7 +37010,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>51</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -35126,7 +37041,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1508</v>
+        <v>645</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -35157,7 +37072,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1923</v>
+        <v>946</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -35188,7 +37103,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1166</v>
+        <v>567</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -35219,7 +37134,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1364</v>
+        <v>323</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -35250,7 +37165,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1772</v>
+        <v>1267</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -35281,7 +37196,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1037</v>
+        <v>1985</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -35312,7 +37227,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>888</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -35343,7 +37258,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>830</v>
+        <v>1917</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -35374,7 +37289,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>963</v>
+        <v>1169</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -35405,7 +37320,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -35436,7 +37351,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>737</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -35467,7 +37382,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>1162</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -35498,7 +37413,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1436</v>
+        <v>254</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -35529,7 +37444,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1203</v>
+        <v>78</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -35560,7 +37475,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>785</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -35591,7 +37506,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>1887</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -35622,7 +37537,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -35653,7 +37568,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1526</v>
+        <v>1314</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -35684,7 +37599,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>1043</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -35715,7 +37630,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>1962</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -35746,7 +37661,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1268</v>
+        <v>469</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -35777,7 +37692,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1451</v>
+        <v>359</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -35808,7 +37723,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1546</v>
+        <v>1848</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -35839,7 +37754,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1810</v>
+        <v>306</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -35870,7 +37785,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1879</v>
+        <v>1291</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -35901,7 +37816,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>1547</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -35932,7 +37847,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>1814</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -35963,7 +37878,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>161</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -35994,7 +37909,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>730</v>
+        <v>1023</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -36025,7 +37940,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1580</v>
+        <v>1950</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -36056,7 +37971,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1010</v>
+        <v>18</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -36087,7 +38002,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1781</v>
+        <v>248</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -36118,7 +38033,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>827</v>
+        <v>179</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -36149,7 +38064,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>892</v>
+        <v>1938</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -36180,7 +38095,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1459</v>
+        <v>1535</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -36211,7 +38126,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>1238</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -36242,7 +38157,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1102</v>
+        <v>1408</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -36273,7 +38188,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1524</v>
+        <v>1596</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>404</v>
@@ -36304,7 +38219,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>1303</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -36335,7 +38250,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -36366,7 +38281,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1756</v>
+        <v>294</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -36397,7 +38312,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1348</v>
+        <v>909</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -36428,7 +38343,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1929</v>
+        <v>1490</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -36459,7 +38374,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1197</v>
+        <v>617</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -36490,7 +38405,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>1739</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -36521,7 +38436,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1083</v>
+        <v>1529</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -36552,7 +38467,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>1672</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -36583,7 +38498,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>837</v>
+        <v>665</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -36614,7 +38529,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>638</v>
+        <v>362</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -36645,7 +38560,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>967</v>
+        <v>1814</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -36676,7 +38591,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>498</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -36707,7 +38622,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1463</v>
+        <v>1774</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -36738,7 +38653,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -36769,7 +38684,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1275</v>
+        <v>1489</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -36800,7 +38715,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1562</v>
+        <v>1883</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -36831,7 +38746,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1863</v>
+        <v>860</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -36862,7 +38777,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>555</v>
+        <v>105</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -36893,7 +38808,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>966</v>
+        <v>918</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -36924,7 +38839,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>889</v>
+        <v>1063</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -36955,7 +38870,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1715</v>
+        <v>349</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -36986,7 +38901,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>735</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -37017,7 +38932,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>1205</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -37048,7 +38963,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -37079,7 +38994,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1221</v>
+        <v>114</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -37110,7 +39025,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>453</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -37141,7 +39056,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>813</v>
+        <v>905</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -37172,7 +39087,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1132</v>
+        <v>489</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -37203,7 +39118,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>1160</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -37234,7 +39149,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -37265,7 +39180,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1912</v>
+        <v>1076</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -37296,7 +39211,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>875</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -37327,7 +39242,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1843</v>
+        <v>1329</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -37358,7 +39273,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1872</v>
+        <v>289</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -37389,7 +39304,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -37420,7 +39335,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1034</v>
+        <v>1771</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -37451,7 +39366,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>984</v>
+        <v>1029</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -37482,7 +39397,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1918</v>
+        <v>566</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -37513,7 +39428,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1125</v>
+        <v>55</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -37544,7 +39459,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1515</v>
+        <v>163</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -37575,7 +39490,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>732</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -37606,7 +39521,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1475</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -37637,7 +39552,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1070</v>
+        <v>1647</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -37668,7 +39583,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1129</v>
+        <v>1077</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -37699,7 +39614,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1657</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -37730,7 +39645,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>686</v>
+        <v>837</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -37761,7 +39676,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>681</v>
+        <v>1038</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -37792,7 +39707,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1403</v>
+        <v>324</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -37823,7 +39738,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>973</v>
+        <v>142</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -37854,7 +39769,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1033</v>
+        <v>119</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -37885,7 +39800,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1844</v>
+        <v>489</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>404</v>
@@ -37916,7 +39831,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>1495</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -37947,7 +39862,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>1864</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -37978,7 +39893,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1209</v>
+        <v>1433</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -38009,7 +39924,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>1252</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -38040,7 +39955,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>583</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -38071,7 +39986,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1496</v>
+        <v>1282</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>
@@ -40688,7 +42603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44046,7 +45961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44100,1247 +46015,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
-        <v>14</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="36">
-        <v>15</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
-        <v>16</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
-        <v>17</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="36">
-        <v>18</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
-        <v>19</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="C20" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="36">
-        <v>20</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="36">
-        <v>21</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="36">
-        <v>22</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="36">
-        <v>23</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="36">
-        <v>24</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C25" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="36">
-        <v>25</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C27" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="36">
-        <v>27</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C28" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="36">
-        <v>28</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="36">
-        <v>29</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C30" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="36">
-        <v>30</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="36">
-        <v>31</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="36">
-        <v>32</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C33" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="36">
-        <v>33</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="36">
-        <v>34</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
-      <c r="A36" s="36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C36" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="36">
-        <v>36</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="36">
-        <v>37</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C38" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="36">
-        <v>38</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="C39" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="36">
-        <v>39</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="36">
-        <v>40</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="36">
-        <v>41</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C42" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="36">
-        <v>42</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="36">
-        <v>43</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="36">
-        <v>44</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15">
-      <c r="A46" s="36">
-        <v>45</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C46" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="36">
-        <v>46</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="36">
-        <v>47</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="C48" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="36">
-        <v>48</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="C49" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="36">
-        <v>49</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C50" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="36">
-        <v>50</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="C51" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="36">
-        <v>51</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C52" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="36">
-        <v>52</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C53" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="36">
-        <v>53</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C54" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="36">
-        <v>54</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="C55" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="36">
-        <v>55</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C56" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="36">
-        <v>56</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="C57" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="36">
-        <v>57</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="36">
-        <v>58</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C59" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="36">
-        <v>59</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="C60" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="36">
-        <v>60</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C61" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="36">
-        <v>61</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="C62" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
-      <c r="A63" s="36">
-        <v>62</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
-      <c r="A64" s="36">
-        <v>63</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="C64" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="36">
-        <v>64</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="36">
-        <v>65</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="C66" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="36">
-        <v>66</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="36">
-        <v>67</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="C68" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="36">
-        <v>68</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15">
-      <c r="A70" s="36">
-        <v>69</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="36">
-        <v>70</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="36">
-        <v>71</v>
-      </c>
-      <c r="B72" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="C72" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="36">
-        <v>72</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="36">
-        <v>73</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="C74" s="36">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36">
-        <v>3</v>
-      </c>
-      <c r="C4" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="36">
-        <v>1</v>
-      </c>
-      <c r="B6" s="36">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="36">
-        <v>1</v>
-      </c>
-      <c r="B7" s="36">
-        <v>6</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="36">
-        <v>1</v>
-      </c>
-      <c r="B8" s="36">
-        <v>7</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="36">
-        <v>1</v>
-      </c>
-      <c r="B9" s="36">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="36">
-        <v>12</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="36">
-        <v>1</v>
-      </c>
-      <c r="C11" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="36">
-        <v>2</v>
-      </c>
-      <c r="B12" s="36">
-        <v>2</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
-        <v>2</v>
-      </c>
-      <c r="B13" s="36">
-        <v>3</v>
-      </c>
-      <c r="C13" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36">
-        <v>4</v>
-      </c>
-      <c r="C14" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
-        <v>2</v>
-      </c>
-      <c r="B15" s="36">
-        <v>5</v>
-      </c>
-      <c r="C15" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="36">
-        <v>2</v>
-      </c>
-      <c r="B16" s="36">
-        <v>6</v>
-      </c>
-      <c r="C16" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
-        <v>2</v>
-      </c>
-      <c r="B17" s="36">
-        <v>7</v>
-      </c>
-      <c r="C17" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
-        <v>2</v>
-      </c>
-      <c r="B18" s="36">
-        <v>9</v>
-      </c>
-      <c r="C18" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="36">
-        <v>2</v>
-      </c>
-      <c r="B19" s="36">
-        <v>12</v>
-      </c>
-      <c r="C19" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
-        <v>2</v>
-      </c>
-      <c r="B20" s="36">
-        <v>13</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF22DC-BE2D-B44F-8EE3-C4F721DE20FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B6B5A-353B-2549-867D-10502BDD2E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -28389,8 +28389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8FED07-6E4B-CD47-8880-4CFA44D1B4D7}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -28565,8 +28565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF50F1-E81D-5445-AE36-2EAFBA9B4F6A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -36452,7 +36452,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>926</v>
+        <v>740</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -36483,7 +36483,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>1937</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -36514,7 +36514,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1591</v>
+        <v>743</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -36576,7 +36576,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1155</v>
+        <v>235</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -36607,7 +36607,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>67</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -36638,7 +36638,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>1320</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -36669,7 +36669,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>783</v>
+        <v>1101</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -36700,7 +36700,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1270</v>
+        <v>1869</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -36731,7 +36731,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>399</v>
+        <v>1427</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1315</v>
+        <v>1279</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -36793,7 +36793,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1578</v>
+        <v>1796</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -36824,7 +36824,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1407</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -36855,7 +36855,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1629</v>
+        <v>242</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -36886,7 +36886,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>866</v>
+        <v>1893</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -36917,7 +36917,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1041</v>
+        <v>428</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -36948,7 +36948,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1443</v>
+        <v>557</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -36979,7 +36979,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1334</v>
+        <v>1486</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -37010,7 +37010,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>1688</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -37041,7 +37041,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>1004</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -37072,7 +37072,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>946</v>
+        <v>1119</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -37103,7 +37103,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>1070</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -37134,7 +37134,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -37165,7 +37165,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1985</v>
+        <v>1364</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -37227,7 +37227,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>888</v>
+        <v>1571</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -37258,7 +37258,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1917</v>
+        <v>272</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -37289,7 +37289,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1169</v>
+        <v>1689</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -37320,7 +37320,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>825</v>
+        <v>227</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -37351,7 +37351,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>737</v>
+        <v>1700</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -37382,7 +37382,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1162</v>
+        <v>352</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -37413,7 +37413,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>740</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -37444,7 +37444,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>849</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>785</v>
+        <v>1632</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -37506,7 +37506,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1887</v>
+        <v>1686</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -37537,7 +37537,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -37568,7 +37568,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1314</v>
+        <v>734</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -37599,7 +37599,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1043</v>
+        <v>530</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -37630,7 +37630,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1962</v>
+        <v>1695</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -37661,7 +37661,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>1445</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -37692,7 +37692,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>359</v>
+        <v>1678</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -37723,7 +37723,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1848</v>
+        <v>309</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -37754,7 +37754,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>1368</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -37785,7 +37785,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1291</v>
+        <v>1028</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -37816,7 +37816,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1547</v>
+        <v>81</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -37847,7 +37847,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1814</v>
+        <v>638</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -37878,7 +37878,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>1386</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -37909,7 +37909,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1023</v>
+        <v>1231</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -37940,7 +37940,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1765</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -37971,7 +37971,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1663</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -38002,7 +38002,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>1885</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -38033,7 +38033,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>1466</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -38064,7 +38064,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1938</v>
+        <v>119</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -38095,7 +38095,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1535</v>
+        <v>1614</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -38126,7 +38126,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1238</v>
+        <v>163</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -38157,7 +38157,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1408</v>
+        <v>533</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -38188,7 +38188,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1596</v>
+        <v>1791</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>404</v>
@@ -38219,7 +38219,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1303</v>
+        <v>528</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -38250,7 +38250,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>1367</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -38281,7 +38281,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>1229</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>909</v>
+        <v>323</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -38343,7 +38343,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1490</v>
+        <v>1531</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -38374,7 +38374,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>1848</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -38405,7 +38405,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1739</v>
+        <v>482</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1529</v>
+        <v>1749</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -38467,7 +38467,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1672</v>
+        <v>1500</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -38498,7 +38498,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>665</v>
+        <v>1075</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -38529,7 +38529,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>852</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -38560,7 +38560,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1814</v>
+        <v>1718</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -38591,7 +38591,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>498</v>
+        <v>1321</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -38622,7 +38622,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1774</v>
+        <v>288</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -38653,7 +38653,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -38684,7 +38684,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1489</v>
+        <v>1597</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -38715,7 +38715,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1883</v>
+        <v>213</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -38746,7 +38746,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>860</v>
+        <v>1295</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -38777,7 +38777,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>416</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -38808,7 +38808,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>918</v>
+        <v>1581</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -38839,7 +38839,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1063</v>
+        <v>720</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -38870,7 +38870,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>349</v>
+        <v>1363</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -38901,7 +38901,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>735</v>
+        <v>634</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -38932,7 +38932,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1205</v>
+        <v>1326</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -38963,7 +38963,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>1077</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -38994,7 +38994,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -39025,7 +39025,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>1198</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -39056,7 +39056,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>403</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -39087,7 +39087,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>489</v>
+        <v>1178</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -39118,7 +39118,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1160</v>
+        <v>1359</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -39149,7 +39149,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>833</v>
+        <v>1468</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -39180,7 +39180,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1076</v>
+        <v>1595</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -39211,7 +39211,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>875</v>
+        <v>86</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -39242,7 +39242,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1329</v>
+        <v>468</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -39273,7 +39273,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>1841</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -39335,7 +39335,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1771</v>
+        <v>1665</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -39366,7 +39366,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1029</v>
+        <v>254</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -39397,7 +39397,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>823</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -39428,7 +39428,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>635</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -39459,7 +39459,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>1794</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -39490,7 +39490,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>732</v>
+        <v>1462</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -39521,7 +39521,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1475</v>
+        <v>3</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -39552,7 +39552,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1647</v>
+        <v>1661</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1077</v>
+        <v>692</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -39614,7 +39614,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1657</v>
+        <v>772</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>837</v>
+        <v>27</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -39676,7 +39676,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1038</v>
+        <v>1246</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -39707,7 +39707,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>1383</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>1903</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -39769,7 +39769,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>1439</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -39800,7 +39800,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>489</v>
+        <v>108</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>404</v>
@@ -39831,7 +39831,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1495</v>
+        <v>715</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -39862,7 +39862,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1864</v>
+        <v>406</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -39893,7 +39893,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1433</v>
+        <v>1798</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -39924,7 +39924,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1252</v>
+        <v>1428</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>583</v>
+        <v>247</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -39986,7 +39986,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1282</v>
+        <v>646</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>

--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF9432-8657-5C49-B111-B5BB220C07BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF61D228-A3A1-9149-936A-FB578609E5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
-    <sheet name="Course_groups" sheetId="2" r:id="rId2"/>
-    <sheet name="Course_articles" sheetId="3" r:id="rId3"/>
-    <sheet name="Articles" sheetId="4" r:id="rId4"/>
-    <sheet name="Article_skills" sheetId="5" r:id="rId5"/>
-    <sheet name="Levels" sheetId="6" r:id="rId6"/>
-    <sheet name="Groups" sheetId="7" r:id="rId7"/>
-    <sheet name="Skills" sheetId="8" r:id="rId8"/>
-    <sheet name="Path_groups" sheetId="9" r:id="rId9"/>
-    <sheet name="Careerpaths" sheetId="10" r:id="rId10"/>
+    <sheet name="Customers_courses" sheetId="11" r:id="rId2"/>
+    <sheet name="Users" sheetId="13" r:id="rId3"/>
+    <sheet name="Customers" sheetId="12" r:id="rId4"/>
+    <sheet name="Course_groups" sheetId="2" r:id="rId5"/>
+    <sheet name="Course_articles" sheetId="3" r:id="rId6"/>
+    <sheet name="Articles" sheetId="4" r:id="rId7"/>
+    <sheet name="Article_skills" sheetId="5" r:id="rId8"/>
+    <sheet name="Levels" sheetId="6" r:id="rId9"/>
+    <sheet name="Groups" sheetId="7" r:id="rId10"/>
+    <sheet name="Skills" sheetId="8" r:id="rId11"/>
+    <sheet name="Path_groups" sheetId="9" r:id="rId12"/>
+    <sheet name="Careerpaths" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="557">
   <si>
     <t>img/10004_g2c1w7.jpg</t>
   </si>
@@ -81,6 +84,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -104,6 +108,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Thanks to a growing number of software programs, it seems as if anyone can make a webpage. But what if you actually want to understand how the page was created? There are great textbooks and online resources for learning web design, but most of those resources require some background knowledge. This course is designed to help the novice who wants to gain confidence and knowledge. We will explore the theory (what actually happens when you click on a link on a webpage?), the practical (what do I need to know to make my own page?), and the overlooked (I have a page, what do I do now?). Throughout the course there will be a strong emphasis on adhering to syntactic standards for validation and semantic standards to promote wide accessibility for users with disabilities.  The textbook we use is available online, “The Missing Link: An Introduction to Web Development and Programming” by Michael Mendez from www.opensuny.org. 
 This course will appeal to a wide variety of people, but specifically those who would like a step-by-step description of the basics. There are no prerequisites for this course and it is assumed that students have no prior programming skills or IT experience. The course will culminate in a small final project that will require the completion of a very simple page with links and images. The focus of this course is on the basics, not appearance. You can see a sample final page at http://intro-webdesign.com/html5-plain.html.  
@@ -115,6 +120,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://intro-webdesign.com/</t>
     </r>
@@ -204,6 +210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>In this course, you'll walk through installation steps for installing a text editor, installing MAMP or XAMPP (or equivalent) and creating a MySql Database. You'll learn about single table queries and the basic syntax of the SQL language, as well as database design with multiple tables, foreign keys, and the JOIN operation. Lastly, you'll learn to model many-to-many relationships like those needed to represent users, roles, and courses.</t>
     </r>
@@ -212,6 +219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -222,6 +230,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.coursera.org/learn/intro-sql</t>
     </r>
@@ -245,6 +254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Welcome to my Basic course on Java Programming with NetBeans!
 My name is Matthew Dewey. I am an experienced programmer, having received several accommodations on programming in my formal education as well as tough several programming languages to thousands of students. My goal is to provide you, the budding programmer, the the knowledge you need on programming in an easy and fun manner. In this course I do just that and with one of the most useful IDEs coupled with the Java programming language.
@@ -259,6 +269,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.udemy.com/course/java-masterclass-basic-to-oop-programming-with-netbeans/</t>
     </r>
@@ -281,6 +292,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>This course concentrates mainly on Javascript based front-end frameworks, and in particular the Angular framework (Currently Ver. 6.x). This course will use Typescript for developing Angular application. Typescript features will be introduced in the context of Angular as part of the exercises. You will also get an introduction to the use of Angular Material and Angular Flex-Layout for responsive UI design. You will be introduced to various aspects of Angular including components, directives and services. You will learn about data binding, Angular router and its use for developing single-page applications. You will also learn about designing both template-driven forms and reactive forms. A quick introduction to Observables, reactive programming and RxJS in the context of Angular is included. You will then learn about Angular support for client-server communication through the HTTP client and the use of REST API on the server side. A quick tour through Angular animation support and Angular testing rounds off the course. You must have either completed the previous course in the specialization on Bootstrap 4, or have a working knowledge of front end web-UI frameworks to be able to navigate this course. Also a good working knowledge of JavaScript, especially ES 5 is strongly recommended.
 At the end of this course you will:
@@ -296,6 +308,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -306,6 +319,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.coursera.org/learn/angular</t>
     </r>
@@ -1742,12 +1756,117 @@
   <si>
     <t>is_active</t>
   </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>encrypted_password</t>
+  </si>
+  <si>
+    <t>reset_password_token</t>
+  </si>
+  <si>
+    <t>remember_created_at</t>
+  </si>
+  <si>
+    <t>confirmation_token</t>
+  </si>
+  <si>
+    <t>confirmed_at</t>
+  </si>
+  <si>
+    <t>unconfirmed_email</t>
+  </si>
+  <si>
+    <t>mentor1@gmail.com</t>
+  </si>
+  <si>
+    <t>mentor2@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Jogesh K. Muppala</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>roll_number</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>tnxtqdi36e7tgrhzpsc4.jpg</t>
+  </si>
+  <si>
+    <t>m2vyfzninc2qhojvynal.png</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>is_owner</t>
+  </si>
+  <si>
+    <t>is_save</t>
+  </si>
+  <si>
+    <t>current_article_id</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>reset_password_sent_at</t>
+  </si>
+  <si>
+    <t>confirmation_sent_at</t>
+  </si>
+  <si>
+    <t>$2a$12$iyL7DZfR3qe8cS/3T9CB2eljqv9yJNadoy0S7hcPCTeZLO8ewjV8q</t>
+  </si>
+  <si>
+    <t>$2a$12$P5CYFOfWBxfyiNSL8nmkyOSeEptp7VYCIaJEdAlA2opQQ78SFoLgm</t>
+  </si>
+  <si>
+    <t>$2a$12$uZo0oKPayxrAURCcICiOluY.Kl6nmo4VgGVuaxlPbe45T871chA/K</t>
+  </si>
+  <si>
+    <t>6QkdxKAg1TRNiNSgQbu7</t>
+  </si>
+  <si>
+    <t>jRq87SJA-DWBQizrnp7w</t>
+  </si>
+  <si>
+    <t>_AtehcKKzAHKUpy35N3j</t>
+  </si>
+  <si>
+    <t>nahpin1hy8mjg0j4kzna.jpg</t>
+  </si>
+  <si>
+    <t>Tai De Lima</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1758,38 +1877,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1800,70 +1926,83 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4D5156"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1874,12 +2013,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1930,7 +2077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2001,6 +2148,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2222,7 +2372,7 @@
   </sheetPr>
   <dimension ref="A1:AB2111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -26731,6 +26881,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="36">
+        <v>16</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="36">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="36">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="36">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="36">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="36">
+        <v>22</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="36">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="36">
+        <v>24</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="36">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="36">
+        <v>26</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="36">
+        <v>27</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="36">
+        <v>28</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="36">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="36">
+        <v>30</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="36">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="36">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="36">
+        <v>34</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="36">
+        <v>46</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="36">
+        <v>48</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="36">
+        <v>49</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="36">
+        <v>50</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="36">
+        <v>51</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" s="36">
+        <v>52</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="36">
+        <v>53</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="36">
+        <v>54</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="36">
+        <v>55</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="36">
+        <v>56</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="36">
+        <v>57</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="36">
+        <v>58</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="36">
+        <v>59</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C60" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="36">
+        <v>60</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="36">
+        <v>61</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="36">
+        <v>62</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="36">
+        <v>63</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="36">
+        <v>64</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="36">
+        <v>65</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="36">
+        <v>66</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="36">
+        <v>67</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="36">
+        <v>68</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="36">
+        <v>69</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="36">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36">
+        <v>3</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="36">
+        <v>6</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="36">
+        <v>1</v>
+      </c>
+      <c r="B8" s="36">
+        <v>7</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="36">
+        <v>12</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="36">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="36">
+        <v>6</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="36">
+        <v>7</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="36">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36">
+        <v>12</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="36">
+        <v>13</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -26792,6 +28185,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1304CA2-7AB6-6048-8903-EAD4549B59C9}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10002</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10003</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>10004</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10005</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10006</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>10007</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>10008</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10009</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10010</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10011</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10012</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8FED07-6E4B-CD47-8880-4CFA44D1B4D7}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" s="52">
+        <v>44064.28365740741</v>
+      </c>
+      <c r="I2" s="50">
+        <v>44067.42725364583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H3" s="50">
+        <v>44064.295481331021</v>
+      </c>
+      <c r="I3" s="50">
+        <v>44067.427585069447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H4" s="50">
+        <v>44065.369011990741</v>
+      </c>
+      <c r="I4" s="50">
+        <v>44067.427929490739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="46"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="H5" s="50">
+        <v>44065.410678657398</v>
+      </c>
+      <c r="I5" s="50">
+        <v>44067.447535381943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="H6" s="50">
+        <v>44065.452345324098</v>
+      </c>
+      <c r="I6" s="50">
+        <v>44067.456604189814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="46"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF50F1-E81D-5445-AE36-2EAFBA9B4F6A}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="48"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="48"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32005,7 +33829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -34473,7 +36297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -34537,7 +36361,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -34568,7 +36392,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>1300</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -34599,7 +36423,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1695</v>
+        <v>658</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -34630,7 +36454,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1624</v>
+        <v>1940</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -34661,7 +36485,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1649</v>
+        <v>843</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -34692,7 +36516,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>1440</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -34723,7 +36547,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>78</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -34754,7 +36578,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1490</v>
+        <v>720</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -34785,7 +36609,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1299</v>
+        <v>878</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -34816,7 +36640,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1652</v>
+        <v>576</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -34847,7 +36671,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1497</v>
+        <v>1161</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -34878,7 +36702,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1687</v>
+        <v>1783</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -34909,7 +36733,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1337</v>
+        <v>1677</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -34940,7 +36764,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>894</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -34971,7 +36795,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>956</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -35002,7 +36826,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>574</v>
+        <v>1474</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -35033,7 +36857,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1793</v>
+        <v>1827</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -35064,7 +36888,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>358</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -35095,7 +36919,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>376</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -35126,7 +36950,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1508</v>
+        <v>980</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -35157,7 +36981,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1923</v>
+        <v>949</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -35188,7 +37012,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1166</v>
+        <v>76</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -35219,7 +37043,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -35250,7 +37074,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1772</v>
+        <v>786</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -35281,7 +37105,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1037</v>
+        <v>1814</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -35312,7 +37136,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>635</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -35343,7 +37167,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>830</v>
+        <v>1993</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -35374,7 +37198,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>963</v>
+        <v>1745</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -35405,7 +37229,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>1258</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -35436,7 +37260,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>666</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -35467,7 +37291,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>1411</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -35498,7 +37322,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1436</v>
+        <v>1792</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -35529,7 +37353,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1203</v>
+        <v>1260</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -35560,7 +37384,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -35591,7 +37415,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>285</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -35622,7 +37446,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>1452</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -35653,7 +37477,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1526</v>
+        <v>736</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -35684,7 +37508,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>1897</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -35715,7 +37539,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -35746,7 +37570,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1268</v>
+        <v>541</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -35777,7 +37601,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1451</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -35808,7 +37632,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1546</v>
+        <v>901</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -35839,7 +37663,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1810</v>
+        <v>1154</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -35870,7 +37694,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1879</v>
+        <v>480</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -35901,7 +37725,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>861</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -35932,7 +37756,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>1092</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -35963,7 +37787,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>850</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -35994,7 +37818,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>730</v>
+        <v>960</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -36025,7 +37849,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1580</v>
+        <v>385</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -36056,7 +37880,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1010</v>
+        <v>634</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -36087,7 +37911,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1781</v>
+        <v>767</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -36118,7 +37942,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>827</v>
+        <v>1817</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -36149,7 +37973,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>892</v>
+        <v>458</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -36180,7 +38004,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1459</v>
+        <v>117</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -36211,7 +38035,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>645</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -36242,7 +38066,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1102</v>
+        <v>1232</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -36273,7 +38097,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1524</v>
+        <v>671</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>404</v>
@@ -36304,7 +38128,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>1787</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -36335,7 +38159,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>714</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -36366,7 +38190,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1756</v>
+        <v>1369</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -36397,7 +38221,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1348</v>
+        <v>1671</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -36428,7 +38252,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1929</v>
+        <v>340</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -36459,7 +38283,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1197</v>
+        <v>1095</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -36490,7 +38314,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -36521,7 +38345,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1083</v>
+        <v>298</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -36552,7 +38376,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>663</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -36583,7 +38407,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>837</v>
+        <v>1607</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -36614,7 +38438,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>638</v>
+        <v>282</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -36645,7 +38469,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>967</v>
+        <v>1694</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -36676,7 +38500,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>765</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -36707,7 +38531,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1463</v>
+        <v>1675</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -36738,7 +38562,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <v>682</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -36769,7 +38593,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1275</v>
+        <v>430</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -36800,7 +38624,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1562</v>
+        <v>541</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -36831,7 +38655,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1863</v>
+        <v>1286</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -36862,7 +38686,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>555</v>
+        <v>1360</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -36893,7 +38717,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -36924,7 +38748,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>889</v>
+        <v>263</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -36955,7 +38779,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1715</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -36986,7 +38810,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1690</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -37017,7 +38841,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>185</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -37048,7 +38872,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>1761</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -37079,7 +38903,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1221</v>
+        <v>17</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -37110,7 +38934,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>1772</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -37141,7 +38965,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>813</v>
+        <v>621</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -37172,7 +38996,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1132</v>
+        <v>1040</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -37203,7 +39027,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>1512</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -37234,7 +39058,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>1243</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -37265,7 +39089,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1912</v>
+        <v>329</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -37296,7 +39120,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>1565</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -37327,7 +39151,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1843</v>
+        <v>660</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -37358,7 +39182,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1872</v>
+        <v>1530</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -37389,7 +39213,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -37420,7 +39244,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1034</v>
+        <v>1690</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -37451,7 +39275,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>984</v>
+        <v>96</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -37482,7 +39306,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1918</v>
+        <v>1493</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -37513,7 +39337,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1125</v>
+        <v>847</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -37544,7 +39368,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1515</v>
+        <v>1201</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -37575,7 +39399,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>1271</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -37606,7 +39430,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>423</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -37637,7 +39461,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -37668,7 +39492,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1129</v>
+        <v>320</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -37699,7 +39523,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>659</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -37730,7 +39554,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>686</v>
+        <v>254</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -37761,7 +39585,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>681</v>
+        <v>1052</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -37792,7 +39616,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1403</v>
+        <v>1763</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -37823,7 +39647,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>973</v>
+        <v>1344</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -37854,7 +39678,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1033</v>
+        <v>862</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -37885,7 +39709,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1844</v>
+        <v>1147</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>404</v>
@@ -37916,7 +39740,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -37947,7 +39771,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>679</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -37978,7 +39802,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1209</v>
+        <v>963</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -38009,7 +39833,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>465</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -38040,7 +39864,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>1971</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -38071,7 +39895,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1496</v>
+        <v>605</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>
@@ -40688,7 +42512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44046,7 +45870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44100,1247 +45924,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
-        <v>14</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="36">
-        <v>15</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
-        <v>16</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
-        <v>17</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="36">
-        <v>18</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
-        <v>19</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="C20" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="36">
-        <v>20</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="36">
-        <v>21</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="36">
-        <v>22</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="36">
-        <v>23</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="36">
-        <v>24</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C25" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="36">
-        <v>25</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C27" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="36">
-        <v>27</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C28" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="36">
-        <v>28</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="36">
-        <v>29</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C30" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="36">
-        <v>30</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="36">
-        <v>31</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="36">
-        <v>32</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C33" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="36">
-        <v>33</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="36">
-        <v>34</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
-      <c r="A36" s="36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C36" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="36">
-        <v>36</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="36">
-        <v>37</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C38" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="36">
-        <v>38</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="C39" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="36">
-        <v>39</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="36">
-        <v>40</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="36">
-        <v>41</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C42" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="36">
-        <v>42</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="36">
-        <v>43</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="36">
-        <v>44</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15">
-      <c r="A46" s="36">
-        <v>45</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C46" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="36">
-        <v>46</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="36">
-        <v>47</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="C48" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="36">
-        <v>48</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="C49" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="36">
-        <v>49</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C50" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="36">
-        <v>50</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="C51" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="36">
-        <v>51</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C52" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="36">
-        <v>52</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C53" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="36">
-        <v>53</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C54" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="36">
-        <v>54</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="C55" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="36">
-        <v>55</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C56" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="36">
-        <v>56</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="C57" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="36">
-        <v>57</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="36">
-        <v>58</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C59" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="36">
-        <v>59</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="C60" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="36">
-        <v>60</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C61" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="36">
-        <v>61</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="C62" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
-      <c r="A63" s="36">
-        <v>62</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
-      <c r="A64" s="36">
-        <v>63</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="C64" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="36">
-        <v>64</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="36">
-        <v>65</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="C66" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="36">
-        <v>66</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="36">
-        <v>67</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="C68" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="36">
-        <v>68</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15">
-      <c r="A70" s="36">
-        <v>69</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="36">
-        <v>70</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="36">
-        <v>71</v>
-      </c>
-      <c r="B72" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="C72" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="36">
-        <v>72</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="36">
-        <v>73</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="C74" s="36">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36">
-        <v>3</v>
-      </c>
-      <c r="C4" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="36">
-        <v>1</v>
-      </c>
-      <c r="B6" s="36">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="36">
-        <v>1</v>
-      </c>
-      <c r="B7" s="36">
-        <v>6</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="36">
-        <v>1</v>
-      </c>
-      <c r="B8" s="36">
-        <v>7</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="36">
-        <v>1</v>
-      </c>
-      <c r="B9" s="36">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="36">
-        <v>12</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="36">
-        <v>1</v>
-      </c>
-      <c r="C11" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="36">
-        <v>2</v>
-      </c>
-      <c r="B12" s="36">
-        <v>2</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
-        <v>2</v>
-      </c>
-      <c r="B13" s="36">
-        <v>3</v>
-      </c>
-      <c r="C13" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36">
-        <v>4</v>
-      </c>
-      <c r="C14" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
-        <v>2</v>
-      </c>
-      <c r="B15" s="36">
-        <v>5</v>
-      </c>
-      <c r="C15" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="36">
-        <v>2</v>
-      </c>
-      <c r="B16" s="36">
-        <v>6</v>
-      </c>
-      <c r="C16" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
-        <v>2</v>
-      </c>
-      <c r="B17" s="36">
-        <v>7</v>
-      </c>
-      <c r="C17" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
-        <v>2</v>
-      </c>
-      <c r="B18" s="36">
-        <v>9</v>
-      </c>
-      <c r="C18" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="36">
-        <v>2</v>
-      </c>
-      <c r="B19" s="36">
-        <v>12</v>
-      </c>
-      <c r="C19" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
-        <v>2</v>
-      </c>
-      <c r="B20" s="36">
-        <v>13</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B6B5A-353B-2549-867D-10502BDD2E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C981769-F017-DE4B-AD62-0E9F46A2EF2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="557">
   <si>
     <t>img/10004_g2c1w7.jpg</t>
   </si>
@@ -1838,12 +1838,6 @@
     <t>confirmation_sent_at</t>
   </si>
   <si>
-    <t>mentor3@gmail.com</t>
-  </si>
-  <si>
-    <t>student1@gmail.com</t>
-  </si>
-  <si>
     <t>$2a$12$iyL7DZfR3qe8cS/3T9CB2eljqv9yJNadoy0S7hcPCTeZLO8ewjV8q</t>
   </si>
   <si>
@@ -1853,12 +1847,6 @@
     <t>$2a$12$uZo0oKPayxrAURCcICiOluY.Kl6nmo4VgGVuaxlPbe45T871chA/K</t>
   </si>
   <si>
-    <t>$2a$12$iEPixIdw6kDXZZ/JCADfmO8vjKvSimCvwE.twLATQzYy7ulcJuNtC</t>
-  </si>
-  <si>
-    <t>$2a$12$E7LmiBIFPcSztET7VZZxCOrJN5/x1S3ghJHJB4Ikp3zrxF9JaOdty</t>
-  </si>
-  <si>
     <t>6QkdxKAg1TRNiNSgQbu7</t>
   </si>
   <si>
@@ -1868,25 +1856,10 @@
     <t>_AtehcKKzAHKUpy35N3j</t>
   </si>
   <si>
-    <t>osHpPJ2YNmxov42rpNmZ</t>
-  </si>
-  <si>
-    <t>LghQbs9aT-GJJUWzh2oE</t>
-  </si>
-  <si>
     <t>nahpin1hy8mjg0j4kzna.jpg</t>
   </si>
   <si>
-    <t>ozuuuhdxnvs6pms80vfm.png</t>
-  </si>
-  <si>
     <t>Tai De Lima</t>
-  </si>
-  <si>
-    <t>Tai De Lima 2</t>
-  </si>
-  <si>
-    <t>Charles Russell Severance</t>
   </si>
 </sst>
 </file>
@@ -28389,8 +28362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8FED07-6E4B-CD47-8880-4CFA44D1B4D7}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -28443,7 +28416,7 @@
         <v>531</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -28452,7 +28425,7 @@
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
       <c r="G2" s="28" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H2" s="52">
         <v>44064.28365740741</v>
@@ -28466,7 +28439,7 @@
         <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -28474,7 +28447,7 @@
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H3" s="50">
         <v>44064.295481331021</v>
@@ -28488,7 +28461,7 @@
         <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -28496,7 +28469,7 @@
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H4" s="50">
         <v>44065.369011990741</v>
@@ -28506,20 +28479,9 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="B5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" s="46"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" t="s">
-        <v>559</v>
-      </c>
       <c r="H5" s="50">
         <v>44065.410678657398</v>
       </c>
@@ -28528,20 +28490,9 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="B6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
+      <c r="A6" s="46"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
-      <c r="G6" t="s">
-        <v>560</v>
-      </c>
       <c r="H6" s="50">
         <v>44065.452345324098</v>
       </c>
@@ -28565,8 +28516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF50F1-E81D-5445-AE36-2EAFBA9B4F6A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -28641,65 +28592,23 @@
         <v>2</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="F5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="F6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="F7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
+      <c r="C7" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36452,7 +36361,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>740</v>
+        <v>1359</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -36483,7 +36392,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1937</v>
+        <v>335</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -36514,7 +36423,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>682</v>
+        <v>1212</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -36545,7 +36454,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>743</v>
+        <v>1395</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -36576,7 +36485,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>1747</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -36607,7 +36516,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>1531</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -36638,7 +36547,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1320</v>
+        <v>644</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -36669,7 +36578,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1101</v>
+        <v>1823</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -36700,7 +36609,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1869</v>
+        <v>600</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -36731,7 +36640,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1427</v>
+        <v>1874</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -36762,7 +36671,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1279</v>
+        <v>934</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -36793,7 +36702,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1796</v>
+        <v>1473</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -36824,7 +36733,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1407</v>
+        <v>711</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -36855,7 +36764,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>490</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -36886,7 +36795,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1893</v>
+        <v>343</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -36917,7 +36826,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>428</v>
+        <v>1387</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -36948,7 +36857,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>557</v>
+        <v>446</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -36979,7 +36888,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1486</v>
+        <v>1591</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -37010,7 +36919,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1688</v>
+        <v>207</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -37041,7 +36950,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1004</v>
+        <v>1933</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -37072,7 +36981,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1119</v>
+        <v>839</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -37103,7 +37012,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1070</v>
+        <v>886</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -37134,7 +37043,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -37165,7 +37074,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1278</v>
+        <v>281</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -37196,7 +37105,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1364</v>
+        <v>710</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -37227,7 +37136,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1571</v>
+        <v>750</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -37258,7 +37167,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>1573</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -37289,7 +37198,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1689</v>
+        <v>301</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -37320,7 +37229,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -37351,7 +37260,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>479</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -37382,7 +37291,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -37413,7 +37322,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>740</v>
+        <v>582</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -37444,7 +37353,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>849</v>
+        <v>1399</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -37475,7 +37384,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1632</v>
+        <v>147</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -37506,7 +37415,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1686</v>
+        <v>278</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -37537,7 +37446,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>465</v>
+        <v>761</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -37568,7 +37477,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>289</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -37599,7 +37508,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -37630,7 +37539,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1695</v>
+        <v>498</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -37661,7 +37570,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1445</v>
+        <v>1505</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -37692,7 +37601,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1678</v>
+        <v>1954</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -37723,7 +37632,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -37754,7 +37663,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1368</v>
+        <v>911</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -37785,7 +37694,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1028</v>
+        <v>1405</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -37816,7 +37725,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>1026</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -37847,7 +37756,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>638</v>
+        <v>11</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -37878,7 +37787,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1386</v>
+        <v>970</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -37909,7 +37818,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1231</v>
+        <v>271</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -37940,7 +37849,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1765</v>
+        <v>1149</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -37971,7 +37880,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1663</v>
+        <v>1280</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -38002,7 +37911,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1885</v>
+        <v>881</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -38033,7 +37942,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1466</v>
+        <v>836</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -38064,7 +37973,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -38095,7 +38004,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1614</v>
+        <v>904</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -38126,7 +38035,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>869</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -38157,7 +38066,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -38219,7 +38128,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>528</v>
+        <v>1542</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -38250,7 +38159,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1367</v>
+        <v>1837</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -38281,7 +38190,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1229</v>
+        <v>1252</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -38312,7 +38221,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -38343,7 +38252,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1531</v>
+        <v>722</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -38374,7 +38283,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1848</v>
+        <v>1827</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -38405,7 +38314,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>482</v>
+        <v>1692</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -38436,7 +38345,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1749</v>
+        <v>177</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -38467,7 +38376,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>503</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -38498,7 +38407,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1075</v>
+        <v>1114</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -38529,7 +38438,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>1971</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -38560,7 +38469,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1718</v>
+        <v>812</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -38591,7 +38500,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1321</v>
+        <v>1187</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -38622,7 +38531,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>713</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -38653,7 +38562,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>787</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -38684,7 +38593,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1597</v>
+        <v>370</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -38715,7 +38624,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>862</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -38746,7 +38655,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1295</v>
+        <v>1335</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -38777,7 +38686,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>1839</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -38808,7 +38717,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1581</v>
+        <v>1138</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -38839,7 +38748,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>720</v>
+        <v>212</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -38870,7 +38779,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1363</v>
+        <v>1815</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -38901,7 +38810,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -38932,7 +38841,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1326</v>
+        <v>13</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -38963,7 +38872,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1077</v>
+        <v>299</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -38994,7 +38903,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -39025,7 +38934,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1198</v>
+        <v>332</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -39056,7 +38965,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>874</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -39087,7 +38996,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1178</v>
+        <v>1524</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -39118,7 +39027,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -39149,7 +39058,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1468</v>
+        <v>531</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -39180,7 +39089,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1595</v>
+        <v>1639</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -39211,7 +39120,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>1034</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -39242,7 +39151,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>1653</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -39273,7 +39182,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>1230</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -39304,7 +39213,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1841</v>
+        <v>1876</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -39335,7 +39244,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1665</v>
+        <v>806</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -39366,7 +39275,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>1067</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -39397,7 +39306,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>823</v>
+        <v>457</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -39428,7 +39337,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>635</v>
+        <v>271</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -39459,7 +39368,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1794</v>
+        <v>836</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -39490,7 +39399,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -39521,7 +39430,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1269</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -39552,7 +39461,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1661</v>
+        <v>1162</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -39583,7 +39492,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>692</v>
+        <v>280</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -39614,7 +39523,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>772</v>
+        <v>1514</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -39645,7 +39554,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>1788</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -39676,7 +39585,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1246</v>
+        <v>249</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -39707,7 +39616,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1383</v>
+        <v>315</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -39738,7 +39647,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1903</v>
+        <v>1502</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -39769,7 +39678,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1439</v>
+        <v>519</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -39831,7 +39740,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>715</v>
+        <v>331</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -39862,7 +39771,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -39893,7 +39802,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1798</v>
+        <v>657</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -39924,7 +39833,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1428</v>
+        <v>1755</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -39955,7 +39864,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -39986,7 +39895,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>646</v>
+        <v>1918</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>

--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1ECCF-E3CC-C248-B348-225AB5A1F1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D709F4-B055-A247-B01B-FB498727C563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers_courses" sheetId="11" r:id="rId1"/>
     <sheet name="Users" sheetId="13" r:id="rId2"/>
     <sheet name="Customers" sheetId="12" r:id="rId3"/>
-    <sheet name="Courses" sheetId="1" r:id="rId4"/>
-    <sheet name="Course_groups" sheetId="2" r:id="rId5"/>
-    <sheet name="Course_articles" sheetId="3" r:id="rId6"/>
-    <sheet name="Articles" sheetId="4" r:id="rId7"/>
-    <sheet name="Article_skills" sheetId="5" r:id="rId8"/>
-    <sheet name="Levels" sheetId="6" r:id="rId9"/>
-    <sheet name="Groups" sheetId="7" r:id="rId10"/>
-    <sheet name="Skills" sheetId="8" r:id="rId11"/>
-    <sheet name="Path_groups" sheetId="9" r:id="rId12"/>
-    <sheet name="Careerpaths" sheetId="10" r:id="rId13"/>
+    <sheet name="Course_Perskills" sheetId="14" r:id="rId4"/>
+    <sheet name="Courses" sheetId="1" r:id="rId5"/>
+    <sheet name="Course_groups" sheetId="2" r:id="rId6"/>
+    <sheet name="Course_articles" sheetId="3" r:id="rId7"/>
+    <sheet name="Articles" sheetId="4" r:id="rId8"/>
+    <sheet name="Article_skills" sheetId="5" r:id="rId9"/>
+    <sheet name="Levels" sheetId="6" r:id="rId10"/>
+    <sheet name="Groups" sheetId="7" r:id="rId11"/>
+    <sheet name="Skills" sheetId="8" r:id="rId12"/>
+    <sheet name="Path_groups" sheetId="9" r:id="rId13"/>
+    <sheet name="Careerpaths" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="554">
   <si>
     <t>img/10004_g2c1w7.jpg</t>
   </si>
@@ -2531,6 +2532,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2704,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3537,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3773,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3987,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4087,6 +4144,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EF527E-233D-9C4A-8433-C13A8CE8C826}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>10002</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10004</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>10005</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>10006</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -28601,7 +28739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33815,7 +33953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36283,7 +36421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36347,7 +36485,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>332</v>
+        <v>1565</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -36378,7 +36516,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -36409,7 +36547,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>819</v>
+        <v>1263</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -36440,7 +36578,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>492</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -36471,7 +36609,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1678</v>
+        <v>1090</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -36502,7 +36640,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1484</v>
+        <v>412</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -36533,7 +36671,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>1808</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -36564,7 +36702,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>1524</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -36595,7 +36733,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1726</v>
+        <v>145</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -36626,7 +36764,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1240</v>
+        <v>718</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -36657,7 +36795,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>1397</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -36688,7 +36826,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -36719,7 +36857,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1820</v>
+        <v>1689</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -36750,7 +36888,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1066</v>
+        <v>1823</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -36781,7 +36919,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>1388</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -36812,7 +36950,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1618</v>
+        <v>772</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -36843,7 +36981,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1123</v>
+        <v>804</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -36874,7 +37012,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1825</v>
+        <v>1897</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -36905,7 +37043,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1044</v>
+        <v>638</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -36936,7 +37074,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1474</v>
+        <v>924</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -36967,7 +37105,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>748</v>
+        <v>489</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -36998,7 +37136,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>498</v>
+        <v>597</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -37029,7 +37167,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>1117</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -37060,7 +37198,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1004</v>
+        <v>1165</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -37091,7 +37229,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>741</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -37122,7 +37260,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1646</v>
+        <v>700</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -37153,7 +37291,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>1828</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -37184,7 +37322,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1365</v>
+        <v>1060</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -37215,7 +37353,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -37246,7 +37384,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1670</v>
+        <v>943</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -37277,7 +37415,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>108</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -37308,7 +37446,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1456</v>
+        <v>1823</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -37339,7 +37477,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1376</v>
+        <v>722</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -37370,7 +37508,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1035</v>
+        <v>1173</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -37401,7 +37539,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1323</v>
+        <v>1920</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -37432,7 +37570,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>1713</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -37463,7 +37601,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>737</v>
+        <v>478</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -37494,7 +37632,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>605</v>
+        <v>1296</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -37525,7 +37663,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>1285</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -37556,7 +37694,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1385</v>
+        <v>1285</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -37587,7 +37725,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>506</v>
+        <v>149</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -37618,7 +37756,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1965</v>
+        <v>314</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -37649,7 +37787,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -37680,7 +37818,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>1787</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -37711,7 +37849,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -37742,7 +37880,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
+        <v>1397</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -37773,7 +37911,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>1916</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -37804,7 +37942,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1839</v>
+        <v>221</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -37835,7 +37973,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -37866,7 +38004,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>342</v>
+        <v>1936</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -37897,7 +38035,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>1705</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -37928,7 +38066,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1824</v>
+        <v>990</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -37959,7 +38097,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -37990,7 +38128,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1696</v>
+        <v>1822</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -38021,7 +38159,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>1059</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -38052,7 +38190,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1774</v>
+        <v>1785</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -38083,7 +38221,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1133</v>
+        <v>1191</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>404</v>
@@ -38114,7 +38252,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>1439</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -38145,7 +38283,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -38176,7 +38314,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1175</v>
+        <v>1327</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -38207,7 +38345,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>631</v>
+        <v>1612</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -38238,7 +38376,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1674</v>
+        <v>1760</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -38269,7 +38407,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>981</v>
+        <v>1857</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -38300,7 +38438,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>219</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -38331,7 +38469,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1298</v>
+        <v>543</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -38362,7 +38500,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1607</v>
+        <v>552</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -38393,7 +38531,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>539</v>
+        <v>735</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -38424,7 +38562,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1252</v>
+        <v>7</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -38455,7 +38593,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>1317</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -38486,7 +38624,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>1720</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -38517,7 +38655,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>863</v>
+        <v>248</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -38548,7 +38686,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1269</v>
+        <v>818</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -38579,7 +38717,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1552</v>
+        <v>1966</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -38610,7 +38748,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>1977</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -38641,7 +38779,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>1822</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -38672,7 +38810,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>541</v>
+        <v>1128</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -38703,7 +38841,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1602</v>
+        <v>1391</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -38734,7 +38872,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>1399</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -38765,7 +38903,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>597</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -38796,7 +38934,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>725</v>
+        <v>1456</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -38827,7 +38965,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1820</v>
+        <v>1913</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -38858,7 +38996,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>987</v>
+        <v>1734</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -38889,7 +39027,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1737</v>
+        <v>696</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -38920,7 +39058,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>1910</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -38951,7 +39089,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>1735</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -38982,7 +39120,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>1930</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -39013,7 +39151,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1743</v>
+        <v>933</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -39044,7 +39182,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1407</v>
+        <v>530</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -39075,7 +39213,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>433</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -39106,7 +39244,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>834</v>
+        <v>177</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -39137,7 +39275,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>1412</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -39168,7 +39306,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1606</v>
+        <v>1066</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -39199,7 +39337,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>1017</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -39230,7 +39368,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1558</v>
+        <v>761</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -39261,7 +39399,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>226</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -39292,7 +39430,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>542</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -39323,7 +39461,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1706</v>
+        <v>587</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -39354,7 +39492,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>1631</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -39385,7 +39523,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -39416,7 +39554,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1312</v>
+        <v>141</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -39447,7 +39585,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1603</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -39478,7 +39616,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>458</v>
+        <v>963</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -39509,7 +39647,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1916</v>
+        <v>328</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -39540,7 +39678,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>893</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -39571,7 +39709,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1635</v>
+        <v>291</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -39602,7 +39740,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>823</v>
+        <v>1306</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -39633,7 +39771,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>703</v>
+        <v>1817</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -39664,7 +39802,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
+        <v>1028</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -39695,7 +39833,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>657</v>
+        <v>147</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>404</v>
@@ -39726,7 +39864,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1376</v>
+        <v>1028</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -39757,7 +39895,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1252</v>
+        <v>1920</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -39788,7 +39926,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>1899</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -39819,7 +39957,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1201</v>
+        <v>993</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -39850,7 +39988,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1571</v>
+        <v>1047</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -39881,7 +40019,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>1382</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>
@@ -42498,7 +42636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -45854,60 +45992,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13">
-      <c r="A1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1ECCF-E3CC-C248-B348-225AB5A1F1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC4241-7A04-AE40-AE8C-11DE53392EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers_courses" sheetId="11" r:id="rId1"/>
     <sheet name="Users" sheetId="13" r:id="rId2"/>
     <sheet name="Customers" sheetId="12" r:id="rId3"/>
-    <sheet name="Courses" sheetId="1" r:id="rId4"/>
-    <sheet name="Course_groups" sheetId="2" r:id="rId5"/>
-    <sheet name="Course_articles" sheetId="3" r:id="rId6"/>
-    <sheet name="Articles" sheetId="4" r:id="rId7"/>
-    <sheet name="Article_skills" sheetId="5" r:id="rId8"/>
-    <sheet name="Levels" sheetId="6" r:id="rId9"/>
-    <sheet name="Groups" sheetId="7" r:id="rId10"/>
-    <sheet name="Skills" sheetId="8" r:id="rId11"/>
-    <sheet name="Path_groups" sheetId="9" r:id="rId12"/>
-    <sheet name="Careerpaths" sheetId="10" r:id="rId13"/>
+    <sheet name="Course_Preskills" sheetId="14" r:id="rId4"/>
+    <sheet name="Courses" sheetId="1" r:id="rId5"/>
+    <sheet name="Course_groups" sheetId="2" r:id="rId6"/>
+    <sheet name="Course_articles" sheetId="3" r:id="rId7"/>
+    <sheet name="Articles" sheetId="4" r:id="rId8"/>
+    <sheet name="Article_skills" sheetId="5" r:id="rId9"/>
+    <sheet name="Levels" sheetId="6" r:id="rId10"/>
+    <sheet name="Groups" sheetId="7" r:id="rId11"/>
+    <sheet name="Skills" sheetId="8" r:id="rId12"/>
+    <sheet name="Path_groups" sheetId="9" r:id="rId13"/>
+    <sheet name="Careerpaths" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="554">
   <si>
     <t>img/10004_g2c1w7.jpg</t>
   </si>
@@ -2531,6 +2532,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2704,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3537,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3773,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3987,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4087,6 +4144,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A0075-B8A6-AE44-BC47-9C68E4FE36D2}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>10002</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10003</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>10004</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -28601,7 +28739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33815,7 +33953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36283,7 +36421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36347,7 +36485,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E116" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>332</v>
+        <v>63</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>404</v>
@@ -36378,7 +36516,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>552</v>
+        <v>291</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>404</v>
@@ -36409,7 +36547,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>819</v>
+        <v>1910</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>404</v>
@@ -36440,7 +36578,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>1217</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>404</v>
@@ -36471,7 +36609,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1678</v>
+        <v>336</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>404</v>
@@ -36502,7 +36640,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1484</v>
+        <v>1233</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>404</v>
@@ -36533,7 +36671,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>754</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>404</v>
@@ -36564,7 +36702,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>404</v>
@@ -36595,7 +36733,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1726</v>
+        <v>626</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>404</v>
@@ -36626,7 +36764,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1240</v>
+        <v>1804</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>404</v>
@@ -36657,7 +36795,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>1526</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>404</v>
@@ -36688,7 +36826,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1930</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>404</v>
@@ -36719,7 +36857,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1820</v>
+        <v>155</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>404</v>
@@ -36750,7 +36888,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1066</v>
+        <v>556</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>404</v>
@@ -36781,7 +36919,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>1099</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>404</v>
@@ -36812,7 +36950,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1618</v>
+        <v>1793</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>404</v>
@@ -36843,7 +36981,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1123</v>
+        <v>969</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>404</v>
@@ -36874,7 +37012,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1825</v>
+        <v>1549</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>404</v>
@@ -36905,7 +37043,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1044</v>
+        <v>178</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>404</v>
@@ -36936,7 +37074,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>404</v>
@@ -36967,7 +37105,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>404</v>
@@ -36998,7 +37136,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>404</v>
@@ -37029,7 +37167,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>404</v>
@@ -37060,7 +37198,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1004</v>
+        <v>465</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>404</v>
@@ -37091,7 +37229,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>1931</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>404</v>
@@ -37122,7 +37260,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1646</v>
+        <v>1661</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>404</v>
@@ -37153,7 +37291,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>983</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>404</v>
@@ -37184,7 +37322,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1365</v>
+        <v>1684</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>404</v>
@@ -37215,7 +37353,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>1074</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>404</v>
@@ -37246,7 +37384,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1670</v>
+        <v>226</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>404</v>
@@ -37277,7 +37415,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>78</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>404</v>
@@ -37308,7 +37446,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1456</v>
+        <v>819</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>404</v>
@@ -37339,7 +37477,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1376</v>
+        <v>1194</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>404</v>
@@ -37370,7 +37508,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1035</v>
+        <v>1085</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>404</v>
@@ -37401,7 +37539,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1323</v>
+        <v>1487</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>404</v>
@@ -37432,7 +37570,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>404</v>
@@ -37463,7 +37601,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>737</v>
+        <v>405</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>404</v>
@@ -37494,7 +37632,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>605</v>
+        <v>1973</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>404</v>
@@ -37525,7 +37663,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>404</v>
@@ -37556,7 +37694,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1385</v>
+        <v>911</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>404</v>
@@ -37587,7 +37725,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>404</v>
@@ -37618,7 +37756,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1965</v>
+        <v>456</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>404</v>
@@ -37649,7 +37787,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>404</v>
@@ -37680,7 +37818,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>404</v>
@@ -37711,7 +37849,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>1030</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>404</v>
@@ -37742,7 +37880,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
+        <v>1301</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>404</v>
@@ -37773,7 +37911,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>456</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>404</v>
@@ -37804,7 +37942,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1839</v>
+        <v>1976</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>404</v>
@@ -37835,7 +37973,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>390</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>404</v>
@@ -37866,7 +38004,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>342</v>
+        <v>1687</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>404</v>
@@ -37897,7 +38035,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>1368</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>404</v>
@@ -37928,7 +38066,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1824</v>
+        <v>571</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>404</v>
@@ -37959,7 +38097,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>1799</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>404</v>
@@ -37990,7 +38128,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1696</v>
+        <v>604</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>404</v>
@@ -38021,7 +38159,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>1873</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>404</v>
@@ -38052,7 +38190,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1774</v>
+        <v>1965</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>404</v>
@@ -38083,7 +38221,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1133</v>
+        <v>1755</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>404</v>
@@ -38114,7 +38252,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>1347</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>404</v>
@@ -38145,7 +38283,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>1508</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>404</v>
@@ -38176,7 +38314,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1175</v>
+        <v>1938</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>404</v>
@@ -38207,7 +38345,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>631</v>
+        <v>459</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>404</v>
@@ -38238,7 +38376,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1674</v>
+        <v>512</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>404</v>
@@ -38269,7 +38407,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>981</v>
+        <v>1557</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>404</v>
@@ -38300,7 +38438,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>698</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>404</v>
@@ -38331,7 +38469,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1298</v>
+        <v>253</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>404</v>
@@ -38362,7 +38500,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1607</v>
+        <v>386</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>404</v>
@@ -38393,7 +38531,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>539</v>
+        <v>1686</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>404</v>
@@ -38424,7 +38562,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1252</v>
+        <v>130</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>404</v>
@@ -38455,7 +38593,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>1481</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>404</v>
@@ -38486,7 +38624,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>125</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>404</v>
@@ -38517,7 +38655,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>863</v>
+        <v>1463</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>404</v>
@@ -38548,7 +38686,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1269</v>
+        <v>1370</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>404</v>
@@ -38579,7 +38717,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1552</v>
+        <v>1077</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>404</v>
@@ -38610,7 +38748,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>1511</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>404</v>
@@ -38641,7 +38779,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>404</v>
@@ -38672,7 +38810,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>541</v>
+        <v>1869</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>404</v>
@@ -38703,7 +38841,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1602</v>
+        <v>977</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>404</v>
@@ -38734,7 +38872,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>1287</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>404</v>
@@ -38765,7 +38903,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>404</v>
@@ -38796,7 +38934,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>725</v>
+        <v>80</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>404</v>
@@ -38827,7 +38965,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1820</v>
+        <v>1540</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>404</v>
@@ -38858,7 +38996,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>987</v>
+        <v>1535</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>404</v>
@@ -38889,7 +39027,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1737</v>
+        <v>158</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>404</v>
@@ -38920,7 +39058,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>404</v>
@@ -38951,7 +39089,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>1838</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>404</v>
@@ -38982,7 +39120,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>1897</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>404</v>
@@ -39013,7 +39151,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1743</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>404</v>
@@ -39044,7 +39182,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1407</v>
+        <v>778</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>404</v>
@@ -39075,7 +39213,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>58</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>404</v>
@@ -39106,7 +39244,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>834</v>
+        <v>1948</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>404</v>
@@ -39137,7 +39275,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>993</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>404</v>
@@ -39168,7 +39306,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1606</v>
+        <v>306</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>404</v>
@@ -39199,7 +39337,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>1524</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>404</v>
@@ -39230,7 +39368,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1558</v>
+        <v>602</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>404</v>
@@ -39261,7 +39399,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>116</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>404</v>
@@ -39292,7 +39430,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>1082</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>404</v>
@@ -39323,7 +39461,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1706</v>
+        <v>598</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>404</v>
@@ -39354,7 +39492,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>1965</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>404</v>
@@ -39385,7 +39523,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>748</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>404</v>
@@ -39416,7 +39554,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1312</v>
+        <v>959</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>404</v>
@@ -39447,7 +39585,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1853</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>404</v>
@@ -39478,7 +39616,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>458</v>
+        <v>1753</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>404</v>
@@ -39509,7 +39647,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1916</v>
+        <v>732</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>404</v>
@@ -39540,7 +39678,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>404</v>
@@ -39571,7 +39709,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1635</v>
+        <v>1840</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>404</v>
@@ -39602,7 +39740,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>823</v>
+        <v>309</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>404</v>
@@ -39633,7 +39771,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>703</v>
+        <v>1171</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>404</v>
@@ -39664,7 +39802,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
+        <v>1727</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>404</v>
@@ -39695,7 +39833,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>657</v>
+        <v>1492</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>404</v>
@@ -39726,7 +39864,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1376</v>
+        <v>737</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>404</v>
@@ -39757,7 +39895,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1252</v>
+        <v>1489</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>404</v>
@@ -39788,7 +39926,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>869</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>404</v>
@@ -39819,7 +39957,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1201</v>
+        <v>1266</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>404</v>
@@ -39850,7 +39988,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1571</v>
+        <v>1369</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>404</v>
@@ -39881,7 +40019,7 @@
       </c>
       <c r="E116" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>479</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>404</v>
@@ -42498,7 +42636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -45854,60 +45992,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13">
-      <c r="A1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/data_import_from_csv/db.xlsx
+++ b/db/data_import_from_csv/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyentai/GitHub/efe/rails-efe/db/data_import_from_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C5F9E-9FDE-4546-B531-26BCCA2B7BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67921A2-CFA2-5644-9545-105BFCB499CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="33400" windowHeight="19340" tabRatio="727" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers_courses" sheetId="11" r:id="rId1"/>
@@ -8192,8 +8192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -8489,8 +8489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -46526,7 +46526,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E33" ca="1" si="0">INT(RAND()*(2000-1)+1)</f>
-        <v>760</v>
+        <v>1833</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>400</v>
@@ -46557,7 +46557,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1439</v>
+        <v>524</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>400</v>
@@ -46588,7 +46588,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1527</v>
+        <v>1697</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>400</v>
@@ -46619,7 +46619,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1744</v>
+        <v>1167</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>400</v>
@@ -46650,7 +46650,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1843</v>
+        <v>388</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>400</v>
@@ -46681,7 +46681,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>603</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>400</v>
@@ -46712,7 +46712,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>903</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>400</v>
@@ -46743,7 +46743,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1607</v>
+        <v>1048</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>400</v>
@@ -46774,7 +46774,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1629</v>
+        <v>1892</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>400</v>
@@ -46805,7 +46805,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1839</v>
+        <v>1171</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>400</v>
@@ -46836,7 +46836,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1683</v>
+        <v>152</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>400</v>
@@ -46867,7 +46867,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1407</v>
+        <v>1621</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>400</v>
@@ -46898,7 +46898,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1538</v>
+        <v>1270</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>400</v>
@@ -46929,7 +46929,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1392</v>
+        <v>866</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>400</v>
@@ -46960,7 +46960,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>932</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>400</v>
@@ -46991,7 +46991,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>689</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>400</v>
@@ -47022,7 +47022,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>813</v>
+        <v>500</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>400</v>
@@ -47053,7 +47053,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>748</v>
+        <v>148</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>400</v>
@@ -47084,7 +47084,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1419</v>
+        <v>1476</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>400</v>
@@ -47115,7 +47115,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1313</v>
+        <v>279</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>400</v>
@@ -47146,7 +47146,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>1813</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>400</v>
@@ -47177,7 +47177,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>993</v>
+        <v>1168</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>400</v>
@@ -47208,7 +47208,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>1690</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>400</v>
@@ -47239,7 +47239,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1376</v>
+        <v>719</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>400</v>
@@ -47270,7 +47270,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1317</v>
+        <v>1108</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>400</v>
@@ -47301,7 +47301,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1006</v>
+        <v>1586</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>400</v>
@@ -47332,7 +47332,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>830</v>
+        <v>937</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>400</v>
@@ -47363,7 +47363,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>687</v>
+        <v>1128</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>400</v>
@@ -47394,7 +47394,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>992</v>
+        <v>87</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>400</v>
@@ -47425,7 +47425,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>649</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>400</v>
@@ -47456,7 +47456,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>959</v>
+        <v>1526</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>400</v>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>547</v>
+        <v>1693</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>400</v>
@@ -47518,7 +47518,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ref="E34:E65" ca="1" si="2">INT(RAND()*(2000-1)+1)</f>
-        <v>817</v>
+        <v>1064</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>400</v>
@@ -47549,7 +47549,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1759</v>
+        <v>919</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>400</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1439</v>
+        <v>1365</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>400</v>
@@ -47611,7 +47611,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>956</v>
+        <v>1693</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>400</v>
@@ -47642,7 +47642,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1263</v>
+        <v>976</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>400</v>
@@ -47673,7 +47673,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1505</v>
+        <v>1700</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>400</v>
@@ -47704,7 +47704,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1563</v>
+        <v>866</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>400</v>
@@ -47735,7 +47735,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>738</v>
+        <v>353</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>400</v>
@@ -47766,7 +47766,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1737</v>
+        <v>439</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>400</v>
@@ -47797,7 +47797,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1207</v>
+        <v>1678</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>400</v>
@@ -47828,7 +47828,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>901</v>
+        <v>1829</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>400</v>
@@ -47859,7 +47859,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1880</v>
+        <v>456</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>400</v>
@@ -47890,7 +47890,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>338</v>
+        <v>1878</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>400</v>
@@ -47921,7 +47921,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1336</v>
+        <v>1201</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>400</v>
@@ -47952,7 +47952,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>969</v>
+        <v>653</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>400</v>
@@ -47983,7 +47983,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>950</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>400</v>
@@ -48014,7 +48014,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1305</v>
+        <v>593</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>400</v>
@@ -48045,7 +48045,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>962</v>
+        <v>1282</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>400</v>
@@ -48076,7 +48076,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1232</v>
+        <v>1508</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>400</v>
@@ -48107,7 +48107,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1885</v>
+        <v>776</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>400</v>
@@ -48138,7 +48138,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>468</v>
+        <v>1759</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>400</v>
@@ -48169,7 +48169,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>499</v>
+        <v>1879</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>400</v>
@@ -48200,7 +48200,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>875</v>
+        <v>1255</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>400</v>
@@ -48231,7 +48231,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>657</v>
+        <v>1578</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>400</v>
@@ -48262,7 +48262,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>400</v>
@@ -48293,7 +48293,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>400</v>
@@ -48324,7 +48324,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>400</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1710</v>
+        <v>1813</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>400</v>
@@ -48386,7 +48386,7 @@
       </c>
       <c r="E62" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>744</v>
+        <v>1703</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>400</v>
@@ -48417,7 +48417,7 @@
       </c>
       <c r="E63" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>838</v>
+        <v>1906</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>400</v>
@@ -48448,7 +48448,7 @@
       </c>
       <c r="E64" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1507</v>
+        <v>1865</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>400</v>
@@ -48479,7 +48479,7 @@
       </c>
       <c r="E65" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1744</v>
+        <v>1522</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>400</v>
@@ -48510,7 +48510,7 @@
       </c>
       <c r="E66" s="10">
         <f t="shared" ref="E66:E97" ca="1" si="3">INT(RAND()*(2000-1)+1)</f>
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>400</v>
@@ -48541,7 +48541,7 @@
       </c>
       <c r="E67" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1031</v>
+        <v>684</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>400</v>
@@ -48572,7 +48572,7 @@
       </c>
       <c r="E68" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1184</v>
+        <v>1997</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>400</v>
@@ -48603,7 +48603,7 @@
       </c>
       <c r="E69" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1096</v>
+        <v>1153</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>400</v>
@@ -48634,7 +48634,7 @@
       </c>
       <c r="E70" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1929</v>
+        <v>1716</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>400</v>
@@ -48665,7 +48665,7 @@
       </c>
       <c r="E71" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1653</v>
+        <v>740</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>400</v>
@@ -48696,7 +48696,7 @@
       </c>
       <c r="E72" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1870</v>
+        <v>338</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>400</v>
@@ -48727,7 +48727,7 @@
       </c>
       <c r="E73" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>400</v>
@@ -48758,7 +48758,7 @@
       </c>
       <c r="E74" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>1930</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>400</v>
@@ -48789,7 +48789,7 @@
       </c>
       <c r="E75" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1369</v>
+        <v>1494</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>400</v>
@@ -48820,7 +48820,7 @@
       </c>
       <c r="E76" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1207</v>
+        <v>1956</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>400</v>
@@ -48851,7 +48851,7 @@
       </c>
       <c r="E77" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1092</v>
+        <v>405</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>400</v>
@@ -48882,7 +48882,7 @@
       </c>
       <c r="E78" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>914</v>
+        <v>88</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>400</v>
@@ -48913,7 +48913,7 @@
       </c>
       <c r="E79" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>731</v>
+        <v>251</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>400</v>
@@ -48944,7 +48944,7 @@
       </c>
       <c r="E80" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>857</v>
+        <v>1641</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>400</v>
@@ -48975,7 +48975,7 @@
       </c>
       <c r="E81" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1414</v>
+        <v>1648</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>400</v>
@@ -49006,7 +49006,7 @@
       </c>
       <c r="E82" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1464</v>
+        <v>225</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>400</v>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="E83" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>916</v>
+        <v>1459</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>400</v>
@@ -49068,7 +49068,7 @@
       </c>
       <c r="E84" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1866</v>
+        <v>656</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>400</v>
@@ -49099,7 +49099,7 @@
       </c>
       <c r="E85" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1194</v>
+        <v>1589</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>400</v>
@@ -49130,7 +49130,7 @@
       </c>
       <c r="E86" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1287</v>
+        <v>1459</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>400</v>
@@ -49161,7 +49161,7 @@
       </c>
       <c r="E87" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1029</v>
+        <v>1934</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>400</v>
@@ -49192,7 +49192,7 @@
       </c>
       <c r="E88" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1427</v>
+        <v>288</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>400</v>
@@ -49223,7 +49223,7 @@
       </c>
       <c r="E89" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>400</v>
@@ -49254,7 +49254,7 @@
       </c>
       <c r="E90" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>1949</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>400</v>
@@ -49285,7 +49285,7 @@
       </c>
       <c r="E91" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>898</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>400</v>
@@ -49316,7 +49316,7 @@
       </c>
       <c r="E92" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1814</v>
+        <v>276</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>400</v>
@@ -49347,7 +49347,7 @@
       </c>
       <c r="E93" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>938</v>
+        <v>483</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>400</v>
@@ -49378,7 +49378,7 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1798</v>
+        <v>1619</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>400</v>
@@ -49409,7 +49409,7 @@
       </c>
       <c r="E95" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1523</v>
+        <v>691</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>400</v>
@@ -49440,7 +49440,7 @@
       </c>
       <c r="E96" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <v>1626</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>400</v>
@@ -49471,7 +49471,7 @@
       </c>
       <c r="E97" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>330</v>
+        <v>1184</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>400</v>
@@ -49502,7 +49502,7 @@
       </c>
       <c r="E98" s="10">
         <f t="shared" ref="E98:E115" ca="1" si="4">INT(RAND()*(2000-1)+1)</f>
-        <v>1080</v>
+        <v>24</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>400</v>
@@ -49533,7 +49533,7 @@
       </c>
       <c r="E99" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1453</v>
+        <v>817</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>400</v>
@@ -49564,7 +49564,7 @@
       </c>
       <c r="E100" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1556</v>
+        <v>1477</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>400</v>
@@ -49595,7 +49595,7 @@
       </c>
       <c r="E101" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>176</v>
+        <v>987</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>400</v>
@@ -49626,7 +49626,7 @@
       </c>
       <c r="E102" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1299</v>
+        <v>31</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>400</v>
@@ -49657,7 +49657,7 @@
       </c>
       <c r="E103" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>560</v>
+        <v>742</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>400</v>
@@ -49688,7 +49688,7 @@
       </c>
       <c r="E104" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1266</v>
+        <v>1314</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>400</v>
@@ -49719,7 +49719,7 @@
       </c>
       <c r="E105" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1637</v>
+        <v>453</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>400</v>
@@ -49750,7 +49750,7 @@
       </c>
       <c r="E106" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>279</v>
+        <v>1142</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>400</v>
@@ -49781,7 +49781,7 @@
       </c>
       <c r="E107" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>877</v>
+        <v>1110</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>400</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="E108" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>680</v>
+        <v>365</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>400</v>
@@ -49843,7 +49843,7 @@
       </c>
       <c r="E109" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>683</v>
+        <v>266</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>400</v>
@@ -49874,7 +49874,7 @@
       </c>
       <c r="E110" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1979</v>
+        <v>100</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>400</v>
@@ -49905,7 +49905,7 @@
       </c>
       <c r="E111" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1817</v>
+        <v>790</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>400</v>
@@ -49936,7 +49936,7 @@
       </c>
       <c r="E112" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>160</v>
+        <v>1039</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>400</v>
@@ -49967,7 +49967,7 @@
       </c>
       <c r="E113" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>466</v>
+        <v>1214</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>400</v>
@@ -49998,7 +49998,7 @@
       </c>
       <c r="E114" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>139</v>
+        <v>1083</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>400</v>
@@ -50029,7 +50029,7 @@
       </c>
       <c r="E115" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>874</v>
+        <v>1612</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>400</v>
